--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3002.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3002.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.179311919669391</v>
+        <v>1.467670917510986</v>
       </c>
       <c r="B1">
-        <v>2.431611349297045</v>
+        <v>1.654739737510681</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.02000880241394</v>
       </c>
       <c r="D1">
-        <v>2.302816722318665</v>
+        <v>2.725885629653931</v>
       </c>
       <c r="E1">
-        <v>1.201147585243921</v>
+        <v>6.623863220214844</v>
       </c>
     </row>
   </sheetData>
